--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="15315" windowHeight="6210"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="15315" windowHeight="6210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>user should be able to register with an account name, email and password</t>
   </si>
@@ -44,6 +45,30 @@
   </si>
   <si>
     <t>User should be able to generate a report</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>user enters name, email and pwd</t>
+  </si>
+  <si>
+    <t>check for validity</t>
+  </si>
+  <si>
+    <t>if email does not exist, register user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a dummy account </t>
+  </si>
+  <si>
+    <t>create a dummy pool</t>
+  </si>
+  <si>
+    <t>hash password and store</t>
+  </si>
+  <si>
+    <t>display a success message and take them to login page</t>
   </si>
 </sst>
 </file>
@@ -889,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -951,4 +976,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>